--- a/Gerson/cronograma.xlsx
+++ b/Gerson/cronograma.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GERSON MORALEZ\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leelu\Desktop\Proyecto 1\Gerson\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83226183-4202-45ED-B541-20C795524A51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>#</t>
   </si>
@@ -100,12 +101,15 @@
   </si>
   <si>
     <t xml:space="preserve">Luis </t>
+  </si>
+  <si>
+    <t>ENTREGA DE NOMINA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -484,24 +488,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -522,7 +526,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -547,7 +551,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -567,7 +571,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -587,7 +591,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -607,7 +611,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="11" t="s">
         <v>16</v>
@@ -617,7 +621,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>12</v>
@@ -635,7 +639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>13</v>
@@ -651,7 +655,7 @@
       </c>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="11" t="s">
         <v>17</v>
@@ -661,7 +665,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
         <v>14</v>
@@ -679,7 +683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>13</v>
@@ -695,7 +699,7 @@
       </c>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="11" t="s">
         <v>18</v>
@@ -705,7 +709,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>15</v>
@@ -723,7 +727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>13</v>
@@ -739,7 +743,7 @@
       </c>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="11" t="s">
         <v>19</v>
@@ -749,7 +753,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
         <v>15</v>
@@ -767,7 +771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>13</v>
@@ -783,15 +787,17 @@
       </c>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
-      <c r="B18" s="11"/>
+      <c r="B18" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="C18" s="12"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>15</v>
@@ -809,7 +815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>13</v>
@@ -832,12 +838,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Gerson/cronograma.xlsx
+++ b/Gerson/cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leelu\Desktop\Proyecto 1\Gerson\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83226183-4202-45ED-B541-20C795524A51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C60F92-CF1B-4A0E-9DB1-7EF85F6F2AC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,9 +85,6 @@
     <t xml:space="preserve">MODIFICACION DE EMPLEDOS </t>
   </si>
   <si>
-    <t>ENTREGA DE CHEQUE</t>
-  </si>
-  <si>
     <t>Gerson</t>
   </si>
   <si>
@@ -97,13 +94,16 @@
     <t>Fernando</t>
   </si>
   <si>
-    <t>Jeff</t>
-  </si>
-  <si>
     <t xml:space="preserve">Luis </t>
   </si>
   <si>
     <t>ENTREGA DE NOMINA</t>
+  </si>
+  <si>
+    <t>ENTREGA DE CHEQUE/CALCULO</t>
+  </si>
+  <si>
+    <t>Jeff y Luis</t>
   </si>
 </sst>
 </file>
@@ -492,7 +492,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -568,7 +568,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="8">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -588,7 +588,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="8">
-        <v>0.01</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -608,7 +608,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="8">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -633,7 +633,7 @@
         <v>43870</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="8">
         <v>1</v>
@@ -651,7 +651,7 @@
         <v>43874</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" s="6"/>
     </row>
@@ -677,7 +677,7 @@
         <v>43870</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="8">
         <v>1</v>
@@ -695,7 +695,7 @@
         <v>43874</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="6"/>
     </row>
@@ -721,7 +721,7 @@
         <v>43870</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F13" s="8">
         <v>1</v>
@@ -739,14 +739,14 @@
         <v>43874</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="7"/>
@@ -765,7 +765,7 @@
         <v>43870</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F16" s="8">
         <v>1</v>
@@ -783,14 +783,14 @@
         <v>43874</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="7"/>
@@ -809,7 +809,7 @@
         <v>43870</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F19" s="8">
         <v>1</v>
@@ -827,7 +827,7 @@
         <v>43874</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F20" s="6"/>
     </row>
